--- a/Base/Backlog_22.xlsx
+++ b/Base/Backlog_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C2F9AB-B3C8-4A66-88CE-ED7F4838EA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD602A1C-5A72-43BB-B590-B1E25431AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Backlog</t>
   </si>
@@ -124,7 +124,7 @@
     <t>Arthur Hassuma</t>
   </si>
   <si>
-    <t>Luan Pierry</t>
+    <t>Resolvido</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -698,7 +698,7 @@
         <v>45810</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
@@ -733,7 +733,7 @@
         <v>45810</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
@@ -768,7 +768,7 @@
         <v>45810</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>11</v>
@@ -838,7 +838,7 @@
         <v>45810</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
@@ -1083,7 +1083,7 @@
         <v>45810</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>45810</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
@@ -1188,7 +1188,7 @@
         <v>45810</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>11</v>
@@ -1734,10 +1734,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1861,75 +1861,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="22">
-        <v>22</v>
-      </c>
-      <c r="E4" s="23">
-        <v>45810</v>
-      </c>
-      <c r="F4" s="23">
-        <v>45814</v>
-      </c>
-      <c r="G4" s="22">
-        <v>336359</v>
-      </c>
-      <c r="H4" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I4" s="23">
-        <v>45814</v>
-      </c>
-      <c r="J4" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="22">
-        <v>2025</v>
-      </c>
-      <c r="D5" s="22">
-        <v>22</v>
-      </c>
-      <c r="E5" s="23">
-        <v>45810</v>
-      </c>
-      <c r="F5" s="23">
-        <v>45814</v>
-      </c>
-      <c r="G5" s="22">
-        <v>336609</v>
-      </c>
-      <c r="H5" s="24">
-        <v>45778</v>
-      </c>
-      <c r="I5" s="23">
-        <v>45814</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>15</v>
-      </c>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+    </row>
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
@@ -2126,32 +2082,6 @@
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
     </row>
-    <row r="21" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Base/Backlog_22.xlsx
+++ b/Base/Backlog_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD602A1C-5A72-43BB-B590-B1E25431AA26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F638A5DA-6768-45FF-B410-33077A697313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-26550" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -611,10 +611,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -704,7 +705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -739,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -809,7 +810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -949,7 +950,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1055,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="13"/>
@@ -1412,7 +1413,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="13"/>
@@ -1420,7 +1421,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="13"/>
@@ -1428,7 +1429,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="14"/>
@@ -1436,7 +1437,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="14"/>
@@ -1444,7 +1445,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="14"/>
@@ -1452,7 +1453,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="14"/>
@@ -1460,7 +1461,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1474,105 +1475,105 @@
       <c r="K30" s="15"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
@@ -1615,13 +1616,13 @@
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="6"/>
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D51" s="3"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
+      <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="7"/>
     </row>
@@ -1722,6 +1723,16 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
+    <filterColumn colId="7">
+      <filters>
+        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Pendente"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -1737,7 +1748,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection sqref="A1:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Base/Backlog_22.xlsx
+++ b/Base/Backlog_22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F638A5DA-6768-45FF-B410-33077A697313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431F2C1-8A8B-44BD-AC96-E1DF11B28663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26550" yWindow="2250" windowWidth="21600" windowHeight="11295" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -611,11 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L70"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -670,7 +669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -705,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -740,7 +739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -810,7 +809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
@@ -944,13 +943,13 @@
         <v>45810</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>4</v>
       </c>
@@ -1055,7 +1054,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
@@ -1090,7 +1089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>4</v>
       </c>
@@ -1125,7 +1124,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>4</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1224,7 +1223,7 @@
         <v>45810</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
@@ -1294,7 +1293,7 @@
         <v>45810</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>11</v>
@@ -1335,7 +1334,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>4</v>
       </c>
@@ -1399,13 +1398,13 @@
         <v>45810</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="13"/>
@@ -1413,7 +1412,7 @@
       <c r="I23" s="8"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="13"/>
@@ -1421,7 +1420,7 @@
       <c r="I24" s="8"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="13"/>
@@ -1429,7 +1428,7 @@
       <c r="I25" s="8"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="14"/>
@@ -1437,7 +1436,7 @@
       <c r="I26" s="8"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="14"/>
@@ -1445,7 +1444,7 @@
       <c r="I27" s="8"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="14"/>
@@ -1453,7 +1452,7 @@
       <c r="I28" s="8"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="14"/>
@@ -1461,7 +1460,7 @@
       <c r="I29" s="8"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
@@ -1475,105 +1474,105 @@
       <c r="K30" s="15"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="H31" s="2"/>
       <c r="I31" s="8"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="H32" s="2"/>
       <c r="I32" s="8"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="8"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="H34" s="2"/>
       <c r="I34" s="8"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="8"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="H36" s="2"/>
       <c r="I36" s="8"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="8"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="H38" s="2"/>
       <c r="I38" s="8"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="8"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="H40" s="2"/>
       <c r="I40" s="8"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="8"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="H42" s="2"/>
       <c r="I42" s="8"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="8"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="H44" s="2"/>
       <c r="I44" s="8"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="4:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="H45" s="2"/>
@@ -1723,16 +1722,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J45" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
-    <filterColumn colId="7">
-      <filters>
-        <dateGroupItem year="2025" month="5" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="Pendente"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J45">
       <sortCondition ref="B1:B45"/>
     </sortState>
@@ -1748,7 +1737,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:K3"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Base/Backlog_22.xlsx
+++ b/Base/Backlog_22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F431F2C1-8A8B-44BD-AC96-E1DF11B28663}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832E0FBE-8B20-4EFC-BA47-05481D22FAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" activeTab="1" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
   <sheets>
     <sheet name="ITI" sheetId="2" r:id="rId1"/>
@@ -109,9 +109,6 @@
     <t>Erick da Silva</t>
   </si>
   <si>
-    <t>Higor Pratz</t>
-  </si>
-  <si>
     <t>Eduardo da Silva</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Resolvido</t>
+  </si>
+  <si>
+    <t>Higor Cruz</t>
   </si>
 </sst>
 </file>
@@ -613,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -674,7 +674,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -698,7 +698,7 @@
         <v>45810</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
@@ -709,7 +709,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="9">
         <v>2025</v>
@@ -733,7 +733,7 @@
         <v>45810</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>11</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="9">
         <v>2025</v>
@@ -768,7 +768,7 @@
         <v>45810</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>11</v>
@@ -838,7 +838,7 @@
         <v>45810</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>11</v>
@@ -943,7 +943,7 @@
         <v>45810</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
@@ -1059,7 +1059,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="9">
         <v>2025</v>
@@ -1083,7 +1083,7 @@
         <v>45810</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
@@ -1153,7 +1153,7 @@
         <v>45810</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="9" t="s">
         <v>11</v>
@@ -1188,7 +1188,7 @@
         <v>45810</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="9" t="s">
         <v>11</v>
@@ -1223,7 +1223,7 @@
         <v>45810</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>11</v>
@@ -1293,7 +1293,7 @@
         <v>45810</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>11</v>
@@ -1363,7 +1363,7 @@
         <v>45810</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>11</v>
@@ -1398,7 +1398,7 @@
         <v>45810</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>11</v>
@@ -1736,8 +1736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6A408-5BF6-4E16-8C71-EC6EB1F5A842}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1796,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="22">
         <v>2025</v>
@@ -1831,7 +1831,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3" s="22">
         <v>2025</v>
